--- a/GUI + Reviews/202512/SESAMm.xlsx
+++ b/GUI + Reviews/202512/SESAMm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2E1AC-F55D-4D55-B37D-DD24BDCF16CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30C941-0CE0-4A63-B244-34BD7ACC1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4723" uniqueCount="4637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="4638">
   <si>
     <t>cutoff</t>
   </si>
@@ -13947,6 +13947,9 @@
   </si>
   <si>
     <t>HARVEY NORMAN HOLDINGS LTD</t>
+  </si>
+  <si>
+    <t>GB00BVZK7T90</t>
   </si>
 </sst>
 </file>
@@ -14339,10 +14342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBBED01-1B80-4FBF-8E05-AE91AA70AE60}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2359"/>
+  <dimension ref="A1:G2360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2329" workbookViewId="0">
+      <selection activeCell="C2361" sqref="C2361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44025,6 +44028,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2360" s="2">
+        <v>45982</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>4637</v>
+      </c>
+      <c r="D2360">
+        <v>0</v>
+      </c>
+      <c r="E2360">
+        <v>0</v>
+      </c>
+      <c r="F2360">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
